--- a/test/unit/Domen.UI.UnitTests/UserExcelExample.xlsx
+++ b/test/unit/Domen.UI.UnitTests/UserExcelExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornelia\Source\Domen\test\unit\Domen.UI.UnitTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14007A0D-588E-4DA4-9A29-E7D07524A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438C4C27-C693-4A82-B37B-622CB8350D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,9 +238,6 @@
     <t>NPC</t>
   </si>
   <si>
-    <t>cornelia.karlslund.se</t>
-  </si>
-  <si>
     <t>Cornelia Karlslund</t>
   </si>
   <si>
@@ -734,6 +731,9 @@
   </si>
   <si>
     <t>39 jättestort</t>
+  </si>
+  <si>
+    <t>cornelia.karlslund@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -778,6 +778,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -808,14 +815,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -824,8 +831,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1046,7 +1055,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1248,29 +1257,29 @@
       <c r="A2" s="2">
         <v>44928.713627280093</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>744444444</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>52</v>
@@ -1282,7 +1291,7 @@
         <v>53</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>68</v>
@@ -1297,10 +1306,10 @@
         <v>70</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>54</v>
@@ -1321,7 +1330,7 @@
         <v>59</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>60</v>
@@ -1342,10 +1351,10 @@
         <v>62</v>
       </c>
       <c r="AI2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>63</v>
@@ -1354,16 +1363,16 @@
         <v>69</v>
       </c>
       <c r="AM2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>64</v>
@@ -1384,39 +1393,39 @@
         <v>0</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44929.713627256948</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>744444445</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>52</v>
@@ -1428,7 +1437,7 @@
         <v>53</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>68</v>
@@ -1443,10 +1452,10 @@
         <v>70</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>54</v>
@@ -1467,7 +1476,7 @@
         <v>59</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>60</v>
@@ -1488,10 +1497,10 @@
         <v>62</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>63</v>
@@ -1500,16 +1509,16 @@
         <v>69</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>64</v>
@@ -1530,39 +1539,39 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44930.713627256948</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>744444446</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>52</v>
@@ -1574,7 +1583,7 @@
         <v>53</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>68</v>
@@ -1589,10 +1598,10 @@
         <v>70</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>54</v>
@@ -1613,7 +1622,7 @@
         <v>59</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>60</v>
@@ -1634,10 +1643,10 @@
         <v>62</v>
       </c>
       <c r="AI4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>63</v>
@@ -1646,16 +1655,16 @@
         <v>69</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>64</v>
@@ -1676,39 +1685,39 @@
         <v>0</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44931.713627256948</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>744444447</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>52</v>
@@ -1720,7 +1729,7 @@
         <v>53</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>68</v>
@@ -1735,10 +1744,10 @@
         <v>70</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>54</v>
@@ -1759,7 +1768,7 @@
         <v>59</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>60</v>
@@ -1780,10 +1789,10 @@
         <v>62</v>
       </c>
       <c r="AI5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>63</v>
@@ -1792,16 +1801,16 @@
         <v>69</v>
       </c>
       <c r="AM5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>64</v>
@@ -1822,39 +1831,39 @@
         <v>0</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44932.713627256948</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>744444448</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>52</v>
@@ -1866,7 +1875,7 @@
         <v>53</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>68</v>
@@ -1881,10 +1890,10 @@
         <v>70</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>54</v>
@@ -1905,7 +1914,7 @@
         <v>59</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>60</v>
@@ -1926,10 +1935,10 @@
         <v>62</v>
       </c>
       <c r="AI6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>63</v>
@@ -1938,16 +1947,16 @@
         <v>69</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>64</v>
@@ -1968,39 +1977,39 @@
         <v>0</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44933.713627256948</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>744444449</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>52</v>
@@ -2012,7 +2021,7 @@
         <v>53</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>68</v>
@@ -2027,10 +2036,10 @@
         <v>70</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>54</v>
@@ -2051,7 +2060,7 @@
         <v>59</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>60</v>
@@ -2072,10 +2081,10 @@
         <v>62</v>
       </c>
       <c r="AI7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>63</v>
@@ -2084,16 +2093,16 @@
         <v>69</v>
       </c>
       <c r="AM7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>64</v>
@@ -2114,39 +2123,39 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44934.713627256948</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>744444450</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>52</v>
@@ -2158,7 +2167,7 @@
         <v>53</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>68</v>
@@ -2173,10 +2182,10 @@
         <v>70</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>54</v>
@@ -2197,7 +2206,7 @@
         <v>59</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>60</v>
@@ -2218,10 +2227,10 @@
         <v>62</v>
       </c>
       <c r="AI8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>63</v>
@@ -2230,16 +2239,16 @@
         <v>69</v>
       </c>
       <c r="AM8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>64</v>
@@ -2260,39 +2269,39 @@
         <v>0</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44935.713627256948</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>744444451</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>52</v>
@@ -2304,7 +2313,7 @@
         <v>53</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>68</v>
@@ -2319,10 +2328,10 @@
         <v>70</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>54</v>
@@ -2343,7 +2352,7 @@
         <v>59</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>60</v>
@@ -2364,10 +2373,10 @@
         <v>62</v>
       </c>
       <c r="AI9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>63</v>
@@ -2376,16 +2385,16 @@
         <v>69</v>
       </c>
       <c r="AM9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ9" s="1" t="s">
         <v>64</v>
@@ -2406,39 +2415,39 @@
         <v>0</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44936.713627256948</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>744444452</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>52</v>
@@ -2450,7 +2459,7 @@
         <v>53</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>68</v>
@@ -2465,10 +2474,10 @@
         <v>70</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>54</v>
@@ -2489,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>60</v>
@@ -2510,10 +2519,10 @@
         <v>62</v>
       </c>
       <c r="AI10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>63</v>
@@ -2522,16 +2531,16 @@
         <v>69</v>
       </c>
       <c r="AM10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ10" s="1" t="s">
         <v>64</v>
@@ -2552,39 +2561,39 @@
         <v>0</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44937.713627256948</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>744444453</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>52</v>
@@ -2596,7 +2605,7 @@
         <v>53</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>68</v>
@@ -2611,10 +2620,10 @@
         <v>70</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>54</v>
@@ -2635,7 +2644,7 @@
         <v>59</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>60</v>
@@ -2656,10 +2665,10 @@
         <v>62</v>
       </c>
       <c r="AI11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>63</v>
@@ -2668,16 +2677,16 @@
         <v>69</v>
       </c>
       <c r="AM11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ11" s="1" t="s">
         <v>64</v>
@@ -2698,39 +2707,39 @@
         <v>0</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44938.713627256948</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>744444454</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>52</v>
@@ -2742,7 +2751,7 @@
         <v>53</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>68</v>
@@ -2757,10 +2766,10 @@
         <v>70</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>54</v>
@@ -2781,7 +2790,7 @@
         <v>59</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>60</v>
@@ -2802,10 +2811,10 @@
         <v>62</v>
       </c>
       <c r="AI12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>63</v>
@@ -2814,16 +2823,16 @@
         <v>69</v>
       </c>
       <c r="AM12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ12" s="1" t="s">
         <v>64</v>
@@ -2844,39 +2853,39 @@
         <v>0</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44939.713627256948</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>744444455</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>52</v>
@@ -2888,7 +2897,7 @@
         <v>53</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>68</v>
@@ -2903,10 +2912,10 @@
         <v>70</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>54</v>
@@ -2927,7 +2936,7 @@
         <v>59</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>60</v>
@@ -2948,10 +2957,10 @@
         <v>62</v>
       </c>
       <c r="AI13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>63</v>
@@ -2960,16 +2969,16 @@
         <v>69</v>
       </c>
       <c r="AM13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ13" s="1" t="s">
         <v>64</v>
@@ -2990,39 +2999,39 @@
         <v>0</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44940.713627256948</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>744444456</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>52</v>
@@ -3034,7 +3043,7 @@
         <v>53</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>68</v>
@@ -3049,10 +3058,10 @@
         <v>70</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>54</v>
@@ -3073,7 +3082,7 @@
         <v>59</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>60</v>
@@ -3094,10 +3103,10 @@
         <v>62</v>
       </c>
       <c r="AI14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>63</v>
@@ -3106,16 +3115,16 @@
         <v>69</v>
       </c>
       <c r="AM14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ14" s="1" t="s">
         <v>64</v>
@@ -3136,39 +3145,39 @@
         <v>0</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44941.713627256948</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>744444457</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>52</v>
@@ -3180,7 +3189,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>68</v>
@@ -3195,10 +3204,10 @@
         <v>70</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>54</v>
@@ -3219,7 +3228,7 @@
         <v>59</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>60</v>
@@ -3240,10 +3249,10 @@
         <v>62</v>
       </c>
       <c r="AI15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>63</v>
@@ -3252,16 +3261,16 @@
         <v>69</v>
       </c>
       <c r="AM15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ15" s="1" t="s">
         <v>64</v>
@@ -3282,39 +3291,39 @@
         <v>0</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44942.713627256948</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>744444458</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>52</v>
@@ -3326,7 +3335,7 @@
         <v>53</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>68</v>
@@ -3341,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>54</v>
@@ -3365,7 +3374,7 @@
         <v>59</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>60</v>
@@ -3386,10 +3395,10 @@
         <v>62</v>
       </c>
       <c r="AI16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>63</v>
@@ -3398,16 +3407,16 @@
         <v>69</v>
       </c>
       <c r="AM16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ16" s="1" t="s">
         <v>64</v>
@@ -3428,39 +3437,39 @@
         <v>0</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44943.713627256948</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>744444459</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>52</v>
@@ -3472,7 +3481,7 @@
         <v>53</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>68</v>
@@ -3487,10 +3496,10 @@
         <v>70</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>54</v>
@@ -3511,7 +3520,7 @@
         <v>59</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>60</v>
@@ -3532,10 +3541,10 @@
         <v>62</v>
       </c>
       <c r="AI17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>63</v>
@@ -3544,16 +3553,16 @@
         <v>69</v>
       </c>
       <c r="AM17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ17" s="1" t="s">
         <v>64</v>
@@ -3574,39 +3583,39 @@
         <v>0</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44944.713627256948</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>744444460</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>52</v>
@@ -3618,7 +3627,7 @@
         <v>53</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>68</v>
@@ -3633,10 +3642,10 @@
         <v>70</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>54</v>
@@ -3657,7 +3666,7 @@
         <v>59</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>60</v>
@@ -3678,10 +3687,10 @@
         <v>62</v>
       </c>
       <c r="AI18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>63</v>
@@ -3690,16 +3699,16 @@
         <v>69</v>
       </c>
       <c r="AM18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ18" s="1" t="s">
         <v>64</v>
@@ -3720,39 +3729,39 @@
         <v>0</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44945.713627256948</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>744444461</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>52</v>
@@ -3764,7 +3773,7 @@
         <v>53</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>68</v>
@@ -3779,10 +3788,10 @@
         <v>70</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>54</v>
@@ -3803,7 +3812,7 @@
         <v>59</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>60</v>
@@ -3824,10 +3833,10 @@
         <v>62</v>
       </c>
       <c r="AI19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>63</v>
@@ -3836,16 +3845,16 @@
         <v>69</v>
       </c>
       <c r="AM19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN19" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ19" s="1" t="s">
         <v>64</v>
@@ -3866,39 +3875,39 @@
         <v>0</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44946.713627256948</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>744444462</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>52</v>
@@ -3910,7 +3919,7 @@
         <v>53</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>68</v>
@@ -3925,10 +3934,10 @@
         <v>70</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>54</v>
@@ -3949,7 +3958,7 @@
         <v>59</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>60</v>
@@ -3970,10 +3979,10 @@
         <v>62</v>
       </c>
       <c r="AI20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>63</v>
@@ -3982,16 +3991,16 @@
         <v>69</v>
       </c>
       <c r="AM20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN20" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ20" s="1" t="s">
         <v>64</v>
@@ -4012,39 +4021,39 @@
         <v>0</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44947.713627256948</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>744444463</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>52</v>
@@ -4056,7 +4065,7 @@
         <v>53</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>68</v>
@@ -4071,10 +4080,10 @@
         <v>70</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>54</v>
@@ -4095,7 +4104,7 @@
         <v>59</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>60</v>
@@ -4116,10 +4125,10 @@
         <v>62</v>
       </c>
       <c r="AI21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>63</v>
@@ -4128,16 +4137,16 @@
         <v>69</v>
       </c>
       <c r="AM21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN21" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ21" s="1" t="s">
         <v>64</v>
@@ -4158,39 +4167,39 @@
         <v>0</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44948.713627256948</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>744444464</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>52</v>
@@ -4202,7 +4211,7 @@
         <v>53</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>68</v>
@@ -4217,10 +4226,10 @@
         <v>70</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>54</v>
@@ -4241,7 +4250,7 @@
         <v>59</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>60</v>
@@ -4262,10 +4271,10 @@
         <v>62</v>
       </c>
       <c r="AI22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>63</v>
@@ -4274,16 +4283,16 @@
         <v>69</v>
       </c>
       <c r="AM22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN22" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ22" s="1" t="s">
         <v>64</v>
@@ -4304,39 +4313,39 @@
         <v>0</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44949.713627256948</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>744444465</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>52</v>
@@ -4348,7 +4357,7 @@
         <v>53</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>68</v>
@@ -4363,10 +4372,10 @@
         <v>70</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>54</v>
@@ -4387,7 +4396,7 @@
         <v>59</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>60</v>
@@ -4408,10 +4417,10 @@
         <v>62</v>
       </c>
       <c r="AI23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>63</v>
@@ -4420,16 +4429,16 @@
         <v>69</v>
       </c>
       <c r="AM23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN23" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ23" s="1" t="s">
         <v>64</v>
@@ -4450,39 +4459,39 @@
         <v>0</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44950.713627256948</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>744444466</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>52</v>
@@ -4494,7 +4503,7 @@
         <v>53</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>68</v>
@@ -4509,10 +4518,10 @@
         <v>70</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>54</v>
@@ -4533,7 +4542,7 @@
         <v>59</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>60</v>
@@ -4554,10 +4563,10 @@
         <v>62</v>
       </c>
       <c r="AI24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>63</v>
@@ -4566,16 +4575,16 @@
         <v>69</v>
       </c>
       <c r="AM24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN24" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ24" s="1" t="s">
         <v>64</v>
@@ -4596,39 +4605,39 @@
         <v>0</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44951.713627256948</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>744444467</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>52</v>
@@ -4640,7 +4649,7 @@
         <v>53</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>68</v>
@@ -4655,10 +4664,10 @@
         <v>70</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>54</v>
@@ -4679,7 +4688,7 @@
         <v>59</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>60</v>
@@ -4700,10 +4709,10 @@
         <v>62</v>
       </c>
       <c r="AI25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>63</v>
@@ -4712,16 +4721,16 @@
         <v>69</v>
       </c>
       <c r="AM25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN25" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ25" s="1" t="s">
         <v>64</v>
@@ -4742,39 +4751,39 @@
         <v>0</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44952.713627256948</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>744444468</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>52</v>
@@ -4786,7 +4795,7 @@
         <v>53</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>68</v>
@@ -4801,10 +4810,10 @@
         <v>70</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>54</v>
@@ -4825,7 +4834,7 @@
         <v>59</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>60</v>
@@ -4846,10 +4855,10 @@
         <v>62</v>
       </c>
       <c r="AI26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>63</v>
@@ -4858,16 +4867,16 @@
         <v>69</v>
       </c>
       <c r="AM26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN26" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ26" s="1" t="s">
         <v>64</v>
@@ -4888,39 +4897,39 @@
         <v>0</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44953.713627256948</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>744444469</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>52</v>
@@ -4932,7 +4941,7 @@
         <v>53</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>68</v>
@@ -4947,10 +4956,10 @@
         <v>70</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>54</v>
@@ -4971,7 +4980,7 @@
         <v>59</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>60</v>
@@ -4992,10 +5001,10 @@
         <v>62</v>
       </c>
       <c r="AI27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>63</v>
@@ -5004,16 +5013,16 @@
         <v>69</v>
       </c>
       <c r="AM27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN27" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>64</v>
@@ -5034,39 +5043,39 @@
         <v>0</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44954.713627256948</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>744444470</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>52</v>
@@ -5078,7 +5087,7 @@
         <v>53</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>68</v>
@@ -5093,10 +5102,10 @@
         <v>70</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>54</v>
@@ -5117,7 +5126,7 @@
         <v>59</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>60</v>
@@ -5138,10 +5147,10 @@
         <v>62</v>
       </c>
       <c r="AI28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>63</v>
@@ -5150,16 +5159,16 @@
         <v>69</v>
       </c>
       <c r="AM28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN28" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ28" s="1" t="s">
         <v>64</v>
@@ -5180,39 +5189,39 @@
         <v>0</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44955.713627256948</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>744444471</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>52</v>
@@ -5224,7 +5233,7 @@
         <v>53</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>68</v>
@@ -5239,10 +5248,10 @@
         <v>70</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>54</v>
@@ -5263,7 +5272,7 @@
         <v>59</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>60</v>
@@ -5284,10 +5293,10 @@
         <v>62</v>
       </c>
       <c r="AI29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>63</v>
@@ -5296,16 +5305,16 @@
         <v>69</v>
       </c>
       <c r="AM29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN29" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ29" s="1" t="s">
         <v>64</v>
@@ -5326,39 +5335,39 @@
         <v>0</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44956.713627256948</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>744444472</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>52</v>
@@ -5370,7 +5379,7 @@
         <v>53</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>68</v>
@@ -5385,10 +5394,10 @@
         <v>70</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>54</v>
@@ -5409,7 +5418,7 @@
         <v>59</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>60</v>
@@ -5430,10 +5439,10 @@
         <v>62</v>
       </c>
       <c r="AI30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>63</v>
@@ -5442,16 +5451,16 @@
         <v>69</v>
       </c>
       <c r="AM30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN30" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ30" s="1" t="s">
         <v>64</v>
@@ -5472,39 +5481,39 @@
         <v>0</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44957.713627256948</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>744444473</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>52</v>
@@ -5516,7 +5525,7 @@
         <v>53</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>68</v>
@@ -5531,10 +5540,10 @@
         <v>70</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>54</v>
@@ -5555,7 +5564,7 @@
         <v>59</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>60</v>
@@ -5576,10 +5585,10 @@
         <v>62</v>
       </c>
       <c r="AI31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>63</v>
@@ -5588,16 +5597,16 @@
         <v>69</v>
       </c>
       <c r="AM31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN31" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ31" s="1" t="s">
         <v>64</v>
@@ -5618,39 +5627,39 @@
         <v>0</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44958.713627256948</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>744444474</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>52</v>
@@ -5662,7 +5671,7 @@
         <v>53</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>68</v>
@@ -5677,10 +5686,10 @@
         <v>70</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>54</v>
@@ -5701,7 +5710,7 @@
         <v>59</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>60</v>
@@ -5722,10 +5731,10 @@
         <v>62</v>
       </c>
       <c r="AI32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ32" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>63</v>
@@ -5734,16 +5743,16 @@
         <v>69</v>
       </c>
       <c r="AM32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN32" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>64</v>
@@ -5764,39 +5773,39 @@
         <v>0</v>
       </c>
       <c r="AW32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44959.713627256948</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>744444475</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>52</v>
@@ -5808,7 +5817,7 @@
         <v>53</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>68</v>
@@ -5823,10 +5832,10 @@
         <v>70</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>54</v>
@@ -5847,7 +5856,7 @@
         <v>59</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>60</v>
@@ -5868,10 +5877,10 @@
         <v>62</v>
       </c>
       <c r="AI33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ33" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>63</v>
@@ -5880,16 +5889,16 @@
         <v>69</v>
       </c>
       <c r="AM33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN33" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ33" s="1" t="s">
         <v>64</v>
@@ -5910,39 +5919,39 @@
         <v>0</v>
       </c>
       <c r="AW33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44960.713627256948</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>744444476</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>52</v>
@@ -5954,7 +5963,7 @@
         <v>53</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>68</v>
@@ -5969,10 +5978,10 @@
         <v>70</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>54</v>
@@ -5993,7 +6002,7 @@
         <v>59</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>60</v>
@@ -6014,10 +6023,10 @@
         <v>62</v>
       </c>
       <c r="AI34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ34" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>63</v>
@@ -6026,16 +6035,16 @@
         <v>69</v>
       </c>
       <c r="AM34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN34" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ34" s="1" t="s">
         <v>64</v>
@@ -6056,39 +6065,39 @@
         <v>0</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44961.713627256948</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>744444477</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>52</v>
@@ -6100,7 +6109,7 @@
         <v>53</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>68</v>
@@ -6115,10 +6124,10 @@
         <v>70</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>54</v>
@@ -6139,7 +6148,7 @@
         <v>59</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>60</v>
@@ -6160,10 +6169,10 @@
         <v>62</v>
       </c>
       <c r="AI35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ35" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>63</v>
@@ -6172,16 +6181,16 @@
         <v>69</v>
       </c>
       <c r="AM35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN35" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ35" s="1" t="s">
         <v>64</v>
@@ -6202,39 +6211,39 @@
         <v>0</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44962.713627256948</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>744444478</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>52</v>
@@ -6246,7 +6255,7 @@
         <v>53</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>68</v>
@@ -6261,10 +6270,10 @@
         <v>70</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>54</v>
@@ -6285,7 +6294,7 @@
         <v>59</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>60</v>
@@ -6306,10 +6315,10 @@
         <v>62</v>
       </c>
       <c r="AI36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ36" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>63</v>
@@ -6318,16 +6327,16 @@
         <v>69</v>
       </c>
       <c r="AM36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN36" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ36" s="1" t="s">
         <v>64</v>
@@ -6348,39 +6357,39 @@
         <v>0</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44963.713627256948</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>744444479</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>52</v>
@@ -6392,7 +6401,7 @@
         <v>53</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>68</v>
@@ -6407,10 +6416,10 @@
         <v>70</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>54</v>
@@ -6431,7 +6440,7 @@
         <v>59</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>60</v>
@@ -6452,10 +6461,10 @@
         <v>62</v>
       </c>
       <c r="AI37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>63</v>
@@ -6464,16 +6473,16 @@
         <v>69</v>
       </c>
       <c r="AM37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN37" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ37" s="1" t="s">
         <v>64</v>
@@ -6494,39 +6503,39 @@
         <v>0</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44964.713627256948</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>744444480</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>52</v>
@@ -6538,7 +6547,7 @@
         <v>53</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>68</v>
@@ -6553,10 +6562,10 @@
         <v>70</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>54</v>
@@ -6577,7 +6586,7 @@
         <v>59</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>60</v>
@@ -6598,10 +6607,10 @@
         <v>62</v>
       </c>
       <c r="AI38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ38" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK38" s="1" t="s">
         <v>63</v>
@@ -6610,16 +6619,16 @@
         <v>69</v>
       </c>
       <c r="AM38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN38" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ38" s="1" t="s">
         <v>64</v>
@@ -6640,39 +6649,39 @@
         <v>0</v>
       </c>
       <c r="AW38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44965.713627256948</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>744444481</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>52</v>
@@ -6684,7 +6693,7 @@
         <v>53</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>68</v>
@@ -6699,10 +6708,10 @@
         <v>70</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>54</v>
@@ -6723,7 +6732,7 @@
         <v>59</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>60</v>
@@ -6744,10 +6753,10 @@
         <v>62</v>
       </c>
       <c r="AI39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ39" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK39" s="1" t="s">
         <v>63</v>
@@ -6756,16 +6765,16 @@
         <v>69</v>
       </c>
       <c r="AM39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN39" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO39" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ39" s="1" t="s">
         <v>64</v>
@@ -6786,39 +6795,39 @@
         <v>0</v>
       </c>
       <c r="AW39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44966.713627256948</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>744444482</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>52</v>
@@ -6830,7 +6839,7 @@
         <v>53</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>68</v>
@@ -6845,10 +6854,10 @@
         <v>70</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>54</v>
@@ -6869,7 +6878,7 @@
         <v>59</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>60</v>
@@ -6890,10 +6899,10 @@
         <v>62</v>
       </c>
       <c r="AI40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ40" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AK40" s="1" t="s">
         <v>63</v>
@@ -6902,16 +6911,16 @@
         <v>69</v>
       </c>
       <c r="AM40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN40" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AO40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ40" s="1" t="s">
         <v>64</v>
@@ -6932,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="AW40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
@@ -6972,7 +6981,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="L42" s="1"/>
@@ -7003,8 +7012,8 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -7037,7 +7046,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -7064,10 +7073,10 @@
     </row>
     <row r="45" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="L45" s="1"/>
@@ -7093,7 +7102,7 @@
     </row>
     <row r="46" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -7123,7 +7132,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="L47" s="1"/>
@@ -7152,16 +7161,16 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
-      <c r="AT47" s="5"/>
+      <c r="AT47" s="4"/>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
     </row>
     <row r="48" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="1"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -7190,8 +7199,8 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -7215,7 +7224,7 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
-      <c r="AT49" s="5"/>
+      <c r="AT49" s="4"/>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
     </row>
@@ -7223,7 +7232,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -7286,8 +7295,8 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="L52" s="1"/>
@@ -7311,7 +7320,7 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
-      <c r="AT52" s="5"/>
+      <c r="AT52" s="4"/>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
@@ -7319,7 +7328,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -7345,7 +7354,7 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
-      <c r="AT53" s="5"/>
+      <c r="AT53" s="4"/>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
     </row>
@@ -7353,8 +7362,8 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="L54" s="1"/>
@@ -7384,8 +7393,8 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -7415,7 +7424,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="L56" s="1"/>
@@ -7445,7 +7454,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="3"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -7476,8 +7485,8 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -7509,7 +7518,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="G59" s="4"/>
+      <c r="G59" s="3"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -7545,7 +7554,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="G60" s="4"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -7575,7 +7584,7 @@
       <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
-      <c r="AT60" s="5"/>
+      <c r="AT60" s="4"/>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
     </row>
@@ -7583,7 +7592,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="G61" s="4"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -7619,10 +7628,10 @@
     </row>
     <row r="62" spans="3:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="4"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="L62" s="1"/>
@@ -7653,7 +7662,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="4"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="L63" s="1"/>
@@ -7681,7 +7690,7 @@
     </row>
     <row r="64" spans="3:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -7714,7 +7723,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="G65" s="4"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -7749,7 +7758,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="4"/>
+      <c r="G66" s="3"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="L66" s="1"/>
@@ -7812,7 +7821,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="G68" s="4"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -7843,8 +7852,8 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -7874,7 +7883,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="G70" s="4"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="L70" s="1"/>
@@ -7905,7 +7914,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="G71" s="4"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="L71" s="1"/>
@@ -7977,7 +7986,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="G73" s="4"/>
+      <c r="G73" s="3"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="L73" s="1"/>
@@ -8010,7 +8019,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="4"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -8040,8 +8049,8 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -8071,7 +8080,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="3"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -8104,7 +8113,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="G77" s="4"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -8139,28 +8148,28 @@
       <c r="AV77" s="1"/>
     </row>
     <row r="78" spans="3:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
       <c r="Z78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
@@ -8204,17 +8213,17 @@
       <c r="AQ79" s="1"/>
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
-      <c r="AT79" s="5"/>
+      <c r="AT79" s="4"/>
       <c r="AU79" s="1"/>
       <c r="AV79" s="1"/>
     </row>
     <row r="80" spans="3:49" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -8266,7 +8275,7 @@
       <c r="AQ81" s="1"/>
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
-      <c r="AT81" s="5"/>
+      <c r="AT81" s="4"/>
       <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
     </row>
@@ -8274,7 +8283,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="L82" s="1"/>
@@ -8303,7 +8312,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="L83" s="1"/>
@@ -8336,7 +8345,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="G84" s="4"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="K84" s="1"/>
@@ -8368,8 +8377,8 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -8401,9 +8410,9 @@
     </row>
     <row r="86" spans="3:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="1"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="L86" s="1"/>
@@ -8434,7 +8443,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -8465,7 +8474,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="G88" s="4"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="K88" s="1"/>
@@ -8530,7 +8539,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="G90" s="4"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="L90" s="1"/>
@@ -8559,8 +8568,8 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
       <c r="I91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -8655,7 +8664,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="G94" s="4"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="L94" s="1"/>
@@ -8688,7 +8697,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="G95" s="4"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="L95" s="1"/>
@@ -8720,7 +8729,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="K96" s="1"/>
@@ -8754,8 +8763,8 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
       <c r="I97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -8816,7 +8825,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="G99" s="4"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -8847,7 +8856,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="G100" s="4"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -8882,7 +8891,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="4"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="L101" s="1"/>
@@ -8912,7 +8921,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="4"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="L102" s="1"/>
@@ -8942,7 +8951,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="4"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -8973,7 +8982,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="4"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="L104" s="1"/>
@@ -9002,7 +9011,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="4"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="L105" s="1"/>
@@ -9029,11 +9038,11 @@
     </row>
     <row r="106" spans="3:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
       <c r="I106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -9059,7 +9068,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="G107" s="4"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="L107" s="1"/>
@@ -9088,9 +9097,9 @@
     </row>
     <row r="108" spans="3:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="3"/>
       <c r="E108" s="1"/>
-      <c r="G108" s="4"/>
+      <c r="G108" s="3"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -9119,7 +9128,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="G109" s="4"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="L109" s="1"/>
@@ -9152,9 +9161,9 @@
     </row>
     <row r="110" spans="3:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="1"/>
-      <c r="G110" s="4"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="L110" s="1"/>
@@ -9184,7 +9193,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="G111" s="4"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="L111" s="1"/>
@@ -9212,9 +9221,9 @@
     </row>
     <row r="112" spans="3:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="3"/>
       <c r="E112" s="1"/>
-      <c r="G112" s="4"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -9282,7 +9291,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="G114" s="4"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -9315,7 +9324,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="G115" s="4"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -9352,7 +9361,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="G116" s="4"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="K116" s="1"/>
@@ -9385,7 +9394,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="4"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="L117" s="1"/>
@@ -9414,7 +9423,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="G118" s="4"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="L118" s="1"/>
@@ -9440,9 +9449,9 @@
     </row>
     <row r="119" spans="3:49" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="1"/>
-      <c r="G119" s="4"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="L119" s="1"/>
@@ -9503,7 +9512,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="G121" s="4"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="L121" s="1"/>
@@ -9537,8 +9546,8 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
       <c r="I122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -9564,14 +9573,14 @@
       <c r="AQ122" s="1"/>
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
-      <c r="AW122" s="8"/>
+      <c r="AW122" s="7"/>
     </row>
     <row r="123" spans="3:49" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
       <c r="I123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -9599,7 +9608,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="G124" s="4"/>
+      <c r="G124" s="3"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="L124" s="1"/>
@@ -9634,7 +9643,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="G125" s="4"/>
+      <c r="G125" s="3"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="L125" s="1"/>
@@ -9663,7 +9672,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="G126" s="4"/>
+      <c r="G126" s="3"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -9697,7 +9706,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="G127" s="4"/>
+      <c r="G127" s="3"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="L127" s="1"/>
@@ -9731,7 +9740,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="G128" s="4"/>
+      <c r="G128" s="3"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -9762,7 +9771,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="G129" s="4"/>
+      <c r="G129" s="3"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -9824,7 +9833,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="G131" s="4"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="K131" s="1"/>
@@ -9864,7 +9873,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="4"/>
+      <c r="G132" s="3"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -9895,7 +9904,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="4"/>
+      <c r="G133" s="3"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="L133" s="1"/>
@@ -9927,7 +9936,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="G134" s="4"/>
+      <c r="G134" s="3"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="L134" s="1"/>
@@ -9986,7 +9995,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="G136" s="4"/>
+      <c r="G136" s="3"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="L136" s="1"/>
@@ -10018,12 +10027,12 @@
       <c r="AS136" s="1"/>
     </row>
     <row r="137" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="G137" s="4"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="L137" s="1"/>
@@ -10054,7 +10063,7 @@
       <c r="AS137" s="1"/>
     </row>
     <row r="138" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -10087,13 +10096,13 @@
       <c r="AS138" s="1"/>
     </row>
     <row r="139" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="4"/>
+      <c r="G139" s="3"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="L139" s="1"/>
@@ -10120,13 +10129,13 @@
       <c r="AS139" s="1"/>
     </row>
     <row r="140" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="4"/>
+      <c r="G140" s="3"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -10155,12 +10164,12 @@
       <c r="AS140" s="1"/>
     </row>
     <row r="141" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="G141" s="4"/>
+      <c r="G141" s="3"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -10193,13 +10202,13 @@
       <c r="AW141" s="1"/>
     </row>
     <row r="142" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="4"/>
+      <c r="D142" s="3"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="4"/>
+      <c r="G142" s="3"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="L142" s="1"/>
@@ -10225,12 +10234,12 @@
       <c r="AS142" s="1"/>
     </row>
     <row r="143" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="G143" s="4"/>
+      <c r="G143" s="3"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="L143" s="1"/>
@@ -10259,12 +10268,12 @@
       <c r="AS143" s="1"/>
     </row>
     <row r="144" spans="1:49" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="G144" s="4"/>
+      <c r="G144" s="3"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -10295,12 +10304,12 @@
       <c r="AS144" s="1"/>
     </row>
     <row r="145" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="G145" s="4"/>
+      <c r="G145" s="3"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="L145" s="1"/>
@@ -10327,13 +10336,13 @@
       <c r="AS145" s="1"/>
     </row>
     <row r="146" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="3"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="4"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="L146" s="1"/>
@@ -10362,13 +10371,13 @@
       <c r="AS146" s="1"/>
     </row>
     <row r="147" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="4"/>
+      <c r="G147" s="3"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="L147" s="1"/>
@@ -10396,7 +10405,7 @@
       <c r="AS147" s="1"/>
     </row>
     <row r="148" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -10428,13 +10437,13 @@
       <c r="AS148" s="1"/>
     </row>
     <row r="149" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="4"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -10465,13 +10474,13 @@
       <c r="AS149" s="1"/>
     </row>
     <row r="150" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="3"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="4"/>
+      <c r="G150" s="3"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="L150" s="1"/>
@@ -10501,12 +10510,12 @@
       <c r="AS150" s="1"/>
     </row>
     <row r="151" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="1"/>
-      <c r="G151" s="4"/>
+      <c r="G151" s="3"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -10537,12 +10546,12 @@
       <c r="AS151" s="1"/>
     </row>
     <row r="152" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="G152" s="4"/>
+      <c r="G152" s="3"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="L152" s="1"/>
@@ -10570,13 +10579,13 @@
       <c r="AS152" s="1"/>
     </row>
     <row r="153" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="4"/>
+      <c r="G153" s="3"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -10610,12 +10619,12 @@
       <c r="AS153" s="1"/>
     </row>
     <row r="154" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="8"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="G154" s="4"/>
+      <c r="G154" s="3"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="K154" s="1"/>
@@ -10643,13 +10652,13 @@
       <c r="AS154" s="1"/>
     </row>
     <row r="155" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
+      <c r="A155" s="8"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="4"/>
+      <c r="G155" s="3"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="K155" s="1"/>
@@ -10676,7 +10685,7 @@
       <c r="AS155" s="1"/>
     </row>
     <row r="156" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -10708,12 +10717,12 @@
       <c r="AS156" s="1"/>
     </row>
     <row r="157" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="G157" s="4"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -10742,13 +10751,13 @@
       <c r="AS157" s="1"/>
     </row>
     <row r="158" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="8"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
       <c r="I158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
@@ -10772,13 +10781,13 @@
       <c r="AS158" s="1"/>
     </row>
     <row r="159" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="4"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="L159" s="1"/>
@@ -10805,12 +10814,12 @@
       <c r="AS159" s="1"/>
     </row>
     <row r="160" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="G160" s="4"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -10838,12 +10847,12 @@
       <c r="AS160" s="1"/>
     </row>
     <row r="161" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="G161" s="4"/>
+      <c r="G161" s="3"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="L161" s="1"/>
@@ -10874,6 +10883,10 @@
   </sheetData>
   <autoFilter ref="A1:AZ161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D4244DE2-246C-4AD5-8FAD-6B8245857523}"/>
+    <hyperlink ref="B3:B40" r:id="rId2" display="cornelia.karlslund@gmail.com" xr:uid="{151C80F8-B437-4A94-B376-3BAD34CACD9C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>